--- a/biology/Médecine/Croonian_Lecture/Croonian_Lecture.xlsx
+++ b/biology/Médecine/Croonian_Lecture/Croonian_Lecture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Croonian Lecture est une prestigieuse leçon magistrale donnée tous les ans sur l'invitation de la Royal Society ou du Collège royal des médecins de Londres.
@@ -517,8 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>XVIIIe siècle
-1738 : Alexander Stuart (v. 1673-1742)
+          <t>XVIIIe siècle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1738 : Alexander Stuart (v. 1673-1742)
 1739 : Frank Nicholls (1699-1788)
 1740 : Alexander Stuart (v. 1673-1742)
 1741 : James Douglas (1675-1742)
@@ -559,9 +576,43 @@
 1797 : John Abernethy (1764-1831)
 1798 : Sir Everard Home (1756-1832)
 1799 : Sir Everard Home (1756-1832)
-1800 : Sir Everard Home (1756-1832)
-XIXe siècle
-1801 : Sir Everard Home (1756-1832)
+1800 : Sir Everard Home (1756-1832)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Croonian_Lecture</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croonian_Lecture</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste chronologique des orateurs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1801 : Sir Everard Home (1756-1832)
 1802 : non archivé
 1803 : John Pearson (1758-1826)
 1804 : Anthony Carlisle (1768-1842)
@@ -641,9 +692,43 @@
 1897 : Sir Charles Scott Sherrington (1857-1952)
 1898 : Wilhelm Friedrich Philipp Pfeffer (1845-1920)
 1899 : John Scott Burdon-Sanderson (1828-1905)
-1900 : Paul Ehrlich (1854-1915)
-XXe siècle
-1901 : Conwy Lloyd Morgan (1852-1936)
+1900 : Paul Ehrlich (1854-1915)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Croonian_Lecture</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croonian_Lecture</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste chronologique des orateurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>XXe siècle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1901 : Conwy Lloyd Morgan (1852-1936)
 1902 : Arthur Gamgee (1841-1909)
 1903 : Kliment Arkadyevich Timiriazev (1843-1920)
 1904 : Ernest Henry Starling (1866-1927) et William Maddock Bayliss
@@ -742,9 +827,43 @@
 1997 : Anthony R. Hunter
 1998 : Philip Cohen
 1999 : Hugh Reginald Brentnall Pelham
-2000 : Peter Nigel Tripp Unwin
-XXIe siècle
-2001 : Ron Laskey
+2000 : Peter Nigel Tripp Unwin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Croonian_Lecture</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croonian_Lecture</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste chronologique des orateurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2001 : Ron Laskey
 2002 : Kim Nasmyth
 2003 : Tim Hunt (1943-)
 2004 : John Krebs (1943-)
